--- a/va_facility_data_2025-02-20/Sorrento Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sorrento%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sorrento Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sorrento%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8c8fefc9d0944effabcfa69c23ad6450"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rad16d1d908fb403aa7f554bf8dae3f0e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R94a1998e48494875bc7675bdb6308b84"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Refb4ff93b11e400497620436a1f42bca"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re2ae4a0dd404444a9bdc9715f2cb9d8c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1fdc1bd7bfc946acbd18d58d3ab17855"/>
   </x:sheets>
 </x:workbook>
 </file>
